--- a/Electron Charge Mass/Constant_Voltage_data.xlsx
+++ b/Electron Charge Mass/Constant_Voltage_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruich\Documents\GitHub\PHY224-2025\Electron Charge Mass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B174AA7-305E-4FC3-B4F1-E6F60E1EBE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA5EE7A-01F9-45A2-8C93-283F95623AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6F524423-34EF-40F2-892C-6629E2F5A395}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6CDAFC36-02E4-4A07-AE32-44D766229503}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>MM1 (A)</t>
+    <t>MM1(A)</t>
   </si>
   <si>
-    <t>MM2 (V)</t>
+    <t>MM2(V)</t>
   </si>
   <si>
-    <t>PS (V)</t>
+    <t>PS(V)</t>
   </si>
   <si>
-    <t>PathDiam (cm)</t>
+    <t>PathDiam(cm)</t>
   </si>
 </sst>
 </file>
@@ -418,11 +418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA2FC1A-31F3-45D2-818B-7046573D2A4E}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F943C9-B6DB-4DC5-8979-686E61110DAE}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -443,69 +443,69 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>-0.91947999999999996</v>
+        <v>-0.93063099999999999</v>
       </c>
       <c r="B2">
-        <v>149.953</v>
+        <v>150.02799999999999</v>
       </c>
       <c r="C2">
-        <v>149.80000000000001</v>
+        <v>149.9</v>
       </c>
       <c r="D2">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>-0.92201999999999995</v>
+        <v>-0.96340400000000004</v>
       </c>
       <c r="B3">
-        <v>149.95099999999999</v>
+        <v>150.01900000000001</v>
       </c>
       <c r="C3">
-        <v>149.80000000000001</v>
+        <v>149.9</v>
       </c>
       <c r="D3">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>-0.95110300000000003</v>
+        <v>-0.995861</v>
       </c>
       <c r="B4">
-        <v>149.95500000000001</v>
+        <v>150.00899999999999</v>
       </c>
       <c r="C4">
-        <v>149.80000000000001</v>
+        <v>149.9</v>
       </c>
       <c r="D4">
-        <v>11.1</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>-0.99007900000000004</v>
+        <v>-1.021034</v>
       </c>
       <c r="B5">
-        <v>149.95500000000001</v>
+        <v>150.001</v>
       </c>
       <c r="C5">
-        <v>149.80000000000001</v>
+        <v>149.9</v>
       </c>
       <c r="D5">
-        <v>10.7</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>-1.0202059999999999</v>
+        <v>-1.0519080000000001</v>
       </c>
       <c r="B6">
-        <v>149.94999999999999</v>
+        <v>150</v>
       </c>
       <c r="C6">
-        <v>149.80000000000001</v>
+        <v>149.9</v>
       </c>
       <c r="D6">
         <v>10.199999999999999</v>
@@ -513,114 +513,170 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>-1.046073</v>
+        <v>-1.101666</v>
       </c>
       <c r="B7">
-        <v>149.953</v>
+        <v>149.995</v>
       </c>
       <c r="C7">
-        <v>149.80000000000001</v>
+        <v>149.9</v>
       </c>
       <c r="D7">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>-1.067232</v>
+        <v>-1.1478330000000001</v>
       </c>
       <c r="B8">
-        <v>149.952</v>
+        <v>149.989</v>
       </c>
       <c r="C8">
-        <v>149.80000000000001</v>
+        <v>149.9</v>
       </c>
       <c r="D8">
-        <v>9.9</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>-1.1051</v>
+        <v>-1.204021</v>
       </c>
       <c r="B9">
-        <v>149.95099999999999</v>
+        <v>149.98500000000001</v>
       </c>
       <c r="C9">
-        <v>149.80000000000001</v>
+        <v>149.9</v>
       </c>
       <c r="D9">
-        <v>9.6</v>
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>-1.129707</v>
+        <v>-1.275717</v>
       </c>
       <c r="B10">
-        <v>149.95500000000001</v>
+        <v>149.97900000000001</v>
       </c>
       <c r="C10">
-        <v>149.80000000000001</v>
+        <v>149.9</v>
       </c>
       <c r="D10">
-        <v>9.3000000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>-1.178355</v>
+        <v>-1.3195319999999999</v>
       </c>
       <c r="B11">
-        <v>149.95400000000001</v>
+        <v>149.976</v>
       </c>
       <c r="C11">
-        <v>149.80000000000001</v>
+        <v>149.9</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>-1.221198</v>
+        <v>-1.403046</v>
       </c>
       <c r="B12">
-        <v>149.952</v>
+        <v>149.976</v>
       </c>
       <c r="C12">
-        <v>149.80000000000001</v>
+        <v>149.9</v>
       </c>
       <c r="D12">
-        <v>8.8000000000000007</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>-1.265245</v>
+        <v>-1.5063580000000001</v>
       </c>
       <c r="B13">
-        <v>149.95599999999999</v>
+        <v>149.97499999999999</v>
       </c>
       <c r="C13">
-        <v>149.80000000000001</v>
+        <v>149.9</v>
       </c>
       <c r="D13">
-        <v>8.4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>-1.324946</v>
+        <v>-1.6140399999999999</v>
       </c>
       <c r="B14">
-        <v>149.95400000000001</v>
+        <v>149.97200000000001</v>
       </c>
       <c r="C14">
-        <v>149.80000000000001</v>
+        <v>149.9</v>
       </c>
       <c r="D14">
-        <v>8.1999999999999993</v>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>-1.7013119999999999</v>
+      </c>
+      <c r="B15">
+        <v>149.96899999999999</v>
+      </c>
+      <c r="C15">
+        <v>149.9</v>
+      </c>
+      <c r="D15">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>-1.8114779999999999</v>
+      </c>
+      <c r="B16">
+        <v>149.96899999999999</v>
+      </c>
+      <c r="C16">
+        <v>149.9</v>
+      </c>
+      <c r="D16">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>-1.923724</v>
+      </c>
+      <c r="B17">
+        <v>149.964</v>
+      </c>
+      <c r="C17">
+        <v>149.9</v>
+      </c>
+      <c r="D17">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>-2.026294</v>
+      </c>
+      <c r="B18">
+        <v>149.96600000000001</v>
+      </c>
+      <c r="C18">
+        <v>149.9</v>
+      </c>
+      <c r="D18">
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>
